--- a/results/apriori/apriori_set-based_sum_tfs.xlsx
+++ b/results/apriori/apriori_set-based_sum_tfs.xlsx
@@ -11,6 +11,7 @@
     <sheet name="apriori_set-based_sum_tfs1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="apriori_set-based_sum_tfs2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="apriori_set-based_sum_tfs3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="apriori_set-based_sum_tfs4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1204,4 +1205,200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04551754545212806</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5147058823529412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.006446460804378112</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07588794916744644</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01088317865656272</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1187465157859014</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02399999492737248</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0227888297956884</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01969934083635464</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01375383308216243</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01656606387008864</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02641191106941836</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005830498239340996</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01702816564772434</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04281100278463697</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5090909090909089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.09039161266656856</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results/apriori/apriori_set-based_sum_tfs.xlsx
+++ b/results/apriori/apriori_set-based_sum_tfs.xlsx
@@ -12,6 +12,16 @@
     <sheet name="apriori_set-based_sum_tfs2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="apriori_set-based_sum_tfs3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="apriori_set-based_sum_tfs4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="apriori_set-based_sum_tfs5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="apriori_set-based_sum_tfs6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="apriori_set-based_sum_tfs7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="apriori_set-based_sum_tfs8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="apriori_set-based_sum_tfs9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="apriori_set-based_sum_tfs10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="apriori_set-based_sum_tfs11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="apriori_set-based_sum_tfs12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="apriori_set-based_sum_tfs13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="apriori_set-based_sum_tfs14" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -619,6 +629,1182 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04600173535092212</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5147058823529412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.006530329968482109</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07486981554840097</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0109295118453032</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1106195006926732</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02357835491646001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02325573815522747</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01969309766656296</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01377884595955174</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01659503665748899</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02691971784092767</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005830498239340996</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01704381302173321</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04293046511118091</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5090909090909089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.08922085415406511</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04377394479295024</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5147058823529412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.006559907016692699</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07520585133462876</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01136001364962818</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1106195006926732</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02277087623516699</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02329559133801372</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01983385647079879</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01741764470307204</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01669184045665039</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02760407565895003</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005936486322893953</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01728580992342662</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0424104600059728</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5090909090909089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.08921694200188449</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04480814067754418</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5147058823529412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.007041534135121988</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07923479543655448</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0115281913949074</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1106195006926732</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02199926099459974</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02275844588029926</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01953010470217212</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02084858274479425</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01677841252969879</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02760407565895003</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005976813580632405</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01732697664536368</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04246394020744615</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5090909090909089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0895784643151316</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0476799129341926</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5147058823529412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.007405965622002454</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07637067410549148</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0115281913949074</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1106195006926732</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0216659738490908</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0227323776377331</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01980713732025091</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02267827354468292</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01648987571594472</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02760407565895003</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005705113744790347</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0174717046651276</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04250305174598702</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5090909090909089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.08963836689249137</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04694424414587199</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5147058823529412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.00723776647421147</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07753023097880749</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0115281913949074</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1106195006926732</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02137266376560964</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02237728324832973</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01930262890631894</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02269977047940984</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01588522427719644</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02760407565895003</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005863123520824271</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01774841344158931</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04280423548999261</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5090909090909089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.08801855425009153</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04658733075450297</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5147058823529412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.005389206956471581</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07741385431287136</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01163139765952289</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1106195006926732</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02064119854203</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02272189179779844</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01984311168474835</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02281580415298965</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01592456499928266</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02760407565895003</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005904403922421838</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01783529906554027</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04315522397389174</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5090909090909089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.08801855425009153</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1401,4 +2587,788 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04927256340871972</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5147058823529412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.005962267692025135</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07605773478518459</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01070046247895388</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1187465157859014</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02595270002883856</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02245048381586464</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02073194826982608</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01188945304164216</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01727553957956434</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02792043209818427</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005507319978178005</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01653146079249133</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04429186988168023</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5090909090909089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.09171022517025609</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04783259281446781</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5147058823529412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.006275227927665783</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0742556742583862</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01071060822256079</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1187465157859014</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02508013826662506</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02265031990751261</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02090300363327895</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01273359023347056</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01727278384764195</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02792043209818427</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005571120201699442</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01674714468365027</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04381764888009276</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5090909090909089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.09113845147455295</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04771606570742564</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5147058823529412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.006721656499094355</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07482257973282082</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01088317865656272</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1187465157859014</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02451761443467111</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02279678423923108</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0212250915117913</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01345664529480719</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01732037028226337</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02641191106941836</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.00565136297574826</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0168110506480981</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04341503921798198</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5090909090909089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.09098377784903938</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04733782587521781</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5147058823529412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.006190193914060341</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07619355388851216</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01088317865656272</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1187465157859014</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02460884538577935</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0226682581143111</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01954995489975414</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01345664529480719</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01671587461585463</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02641191106941836</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005771346864400147</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01698182381403681</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04316956813616504</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5090909090909089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.09154841302481563</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>